--- a/results/I3_N5_M2_T45_C100_DepCentral_s0_res.xlsx
+++ b/results/I3_N5_M2_T45_C100_DepCentral_s0_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2832.618797434271</v>
+        <v>823.9011839847824</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.517999887466431</v>
+        <v>1.259000062942505</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.93920932752239</v>
+        <v>22.34396249240742</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13.94992494449695</v>
+        <v>8.279704360440018</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.499513051241163</v>
+        <v>3.836925852814985</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2821.130000000004</v>
+        <v>654</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,10 +584,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -606,10 +606,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -617,10 +617,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -628,34 +628,12 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" t="n">
-        <v>4</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" t="n">
-        <v>5</v>
-      </c>
-      <c r="C8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -711,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -722,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -733,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -744,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -755,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -766,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -813,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -835,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -929,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>37.27672624716371</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
@@ -937,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>41.16307414718501</v>
+        <v>36.72029563955999</v>
       </c>
     </row>
     <row r="5">
@@ -945,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
+        <v>25.64875879776816</v>
       </c>
     </row>
     <row r="6">
@@ -953,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>31.38258508835185</v>
+        <v>42.57904977333279</v>
       </c>
     </row>
     <row r="7">
@@ -961,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>32.94108823397055</v>
+        <v>33.53580195923967</v>
       </c>
     </row>
     <row r="8">
@@ -991,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1023,10 +1001,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1037,10 +1015,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1051,10 +1029,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1065,10 +1043,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1079,10 +1057,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -1093,7 +1071,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
         <v>6</v>
@@ -1107,7 +1085,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B8" t="n">
         <v>6</v>
@@ -1121,7 +1099,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B9" t="n">
         <v>6</v>
@@ -1135,7 +1113,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B10" t="n">
         <v>6</v>
@@ -1149,7 +1127,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B11" t="n">
         <v>6</v>
@@ -1158,118 +1136,6 @@
         <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>3</v>
-      </c>
-      <c r="B12" t="n">
-        <v>5</v>
-      </c>
-      <c r="C12" t="n">
-        <v>3</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>3</v>
-      </c>
-      <c r="B13" t="n">
-        <v>5</v>
-      </c>
-      <c r="C13" t="n">
-        <v>5</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>4</v>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>4</v>
-      </c>
-      <c r="B15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" t="n">
-        <v>3</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>4</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="n">
-        <v>4</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>4</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>5</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>5</v>
-      </c>
-      <c r="B18" t="n">
-        <v>7</v>
-      </c>
-      <c r="C18" t="n">
-        <v>3</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>5</v>
-      </c>
-      <c r="B19" t="n">
-        <v>7</v>
-      </c>
-      <c r="C19" t="n">
-        <v>5</v>
-      </c>
-      <c r="D19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1372,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>176.6900000000006</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8">
@@ -1383,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>173.05</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9">
@@ -1394,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>182.4850000000004</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10">
@@ -1405,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>180.6550000000001</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11">
@@ -1416,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>176.340000000001</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12">
@@ -1427,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>288.0900000000006</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13">
@@ -1438,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>295.1150000000008</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14">
@@ -1449,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>299.2</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15">
@@ -1460,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>305.8650000000015</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16">
@@ -1471,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>298.9700000000009</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17">
@@ -1482,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>99.54499999999935</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18">
@@ -1493,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>92.51499999999935</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19">
@@ -1504,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>100.0699999999993</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20">
@@ -1515,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>90.09499999999935</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21">
@@ -1526,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>102.7799999999993</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22">
@@ -1537,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>108.515</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23">
@@ -1548,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>96.91999999999999</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24">
@@ -1559,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>106.645</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25">
@@ -1570,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>103.745</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26">
@@ -1581,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>100.49</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27">
@@ -1592,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>176.7649999999994</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28">
@@ -1603,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>179.8600000000006</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29">
@@ -1614,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>191.55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30">
@@ -1625,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>181.9549999999981</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31">
@@ -1636,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>193.1949999999997</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32">
@@ -1647,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>288.0900000000006</v>
+        <v>157</v>
       </c>
     </row>
     <row r="33">
@@ -1658,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>295.1150000000008</v>
+        <v>157</v>
       </c>
     </row>
     <row r="34">
@@ -1669,7 +1535,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>299.2</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35">
@@ -1680,7 +1546,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>305.8650000000015</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36">
@@ -1691,7 +1557,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>298.9700000000013</v>
+        <v>151</v>
       </c>
     </row>
     <row r="37">
@@ -1702,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>176.7649999999994</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38">
@@ -1713,7 +1579,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>179.8600000000006</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39">
@@ -1724,7 +1590,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>191.55</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40">
@@ -1735,7 +1601,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>181.9549999999981</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41">
@@ -1746,7 +1612,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>193.1949999999997</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1793,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>188.0900000000006</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
@@ -1804,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>195.1150000000008</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
@@ -1815,7 +1681,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>199.2</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
@@ -1826,7 +1692,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>205.8650000000015</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
@@ -1837,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>198.9700000000013</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7">
@@ -1848,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>76.76499999999942</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1859,7 +1725,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>79.86000000000058</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -1870,7 +1736,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>91.55</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -1881,7 +1747,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>81.95499999999811</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -1892,7 +1758,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>93.19499999999971</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1939,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1950,7 +1816,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1961,7 +1827,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1972,7 +1838,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1983,7 +1849,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -2049,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -2060,7 +1926,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -2071,7 +1937,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -2082,7 +1948,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -2093,7 +1959,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -2217,7 +2083,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2354,10 +2220,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -2365,10 +2231,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -2379,7 +2245,7 @@
         <v>4</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -2390,7 +2256,7 @@
         <v>4</v>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -2401,75 +2267,9 @@
         <v>4</v>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>4</v>
-      </c>
-      <c r="B17" t="n">
-        <v>5</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>5</v>
-      </c>
-      <c r="B18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>5</v>
-      </c>
-      <c r="B19" t="n">
-        <v>2</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>5</v>
-      </c>
-      <c r="B20" t="n">
-        <v>3</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>5</v>
-      </c>
-      <c r="B21" t="n">
-        <v>4</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>5</v>
-      </c>
-      <c r="B22" t="n">
-        <v>5</v>
-      </c>
-      <c r="C22" t="n">
         <v>1</v>
       </c>
     </row>
